--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="180" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="270" uniqueCount="140">
   <si>
     <t>LH2 Feed pressure (bar)_ 1</t>
   </si>
@@ -193,6 +193,246 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_20</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 1</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 2</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 3</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 4</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 5</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 6</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 7</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 8</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_ 9</t>
+  </si>
+  <si>
+    <t>Insulation equivalent conductivity (W/mK)_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_10</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_10</t>
   </si>
 </sst>
 </file>
@@ -238,254 +478,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="true"/>
-    <col min="2" max="2" width="24.42578125" customWidth="true"/>
-    <col min="3" max="3" width="24.42578125" customWidth="true"/>
-    <col min="4" max="4" width="24.42578125" customWidth="true"/>
-    <col min="5" max="5" width="24.42578125" customWidth="true"/>
-    <col min="6" max="6" width="24.42578125" customWidth="true"/>
-    <col min="7" max="7" width="24.42578125" customWidth="true"/>
-    <col min="8" max="8" width="24.42578125" customWidth="true"/>
-    <col min="9" max="9" width="24.42578125" customWidth="true"/>
-    <col min="10" max="10" width="25" customWidth="true"/>
-    <col min="11" max="11" width="25" customWidth="true"/>
-    <col min="12" max="12" width="25" customWidth="true"/>
-    <col min="13" max="13" width="25" customWidth="true"/>
-    <col min="14" max="14" width="25" customWidth="true"/>
-    <col min="15" max="15" width="25" customWidth="true"/>
-    <col min="16" max="16" width="25" customWidth="true"/>
-    <col min="17" max="17" width="25" customWidth="true"/>
-    <col min="18" max="18" width="25" customWidth="true"/>
-    <col min="19" max="19" width="25" customWidth="true"/>
-    <col min="20" max="20" width="25" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="34.7109375" customWidth="true"/>
-    <col min="29" max="29" width="34.7109375" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="35.28515625" customWidth="true"/>
-    <col min="38" max="38" width="35.28515625" customWidth="true"/>
-    <col min="39" max="39" width="35.28515625" customWidth="true"/>
-    <col min="40" max="40" width="35.28515625" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="19.7109375" customWidth="true"/>
-    <col min="47" max="47" width="19.7109375" customWidth="true"/>
-    <col min="48" max="48" width="19.7109375" customWidth="true"/>
-    <col min="49" max="49" width="19.7109375" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
-    <col min="55" max="55" width="20.28515625" customWidth="true"/>
-    <col min="56" max="56" width="20.28515625" customWidth="true"/>
-    <col min="57" max="57" width="20.28515625" customWidth="true"/>
-    <col min="58" max="58" width="20.28515625" customWidth="true"/>
-    <col min="59" max="59" width="20.28515625" customWidth="true"/>
-    <col min="60" max="60" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="41.140625" customWidth="true"/>
+    <col min="2" max="2" width="41.140625" customWidth="true"/>
+    <col min="3" max="3" width="41.140625" customWidth="true"/>
+    <col min="4" max="4" width="41.140625" customWidth="true"/>
+    <col min="5" max="5" width="41.140625" customWidth="true"/>
+    <col min="6" max="6" width="41.140625" customWidth="true"/>
+    <col min="7" max="7" width="41.140625" customWidth="true"/>
+    <col min="8" max="8" width="41.140625" customWidth="true"/>
+    <col min="9" max="9" width="41.140625" customWidth="true"/>
+    <col min="10" max="10" width="41.7109375" customWidth="true"/>
+    <col min="11" max="11" width="35.7109375" customWidth="true"/>
+    <col min="12" max="12" width="35.7109375" customWidth="true"/>
+    <col min="13" max="13" width="35.7109375" customWidth="true"/>
+    <col min="14" max="14" width="35.7109375" customWidth="true"/>
+    <col min="15" max="15" width="35.7109375" customWidth="true"/>
+    <col min="16" max="16" width="35.7109375" customWidth="true"/>
+    <col min="17" max="17" width="35.7109375" customWidth="true"/>
+    <col min="18" max="18" width="35.7109375" customWidth="true"/>
+    <col min="19" max="19" width="35.7109375" customWidth="true"/>
+    <col min="20" max="20" width="36.28515625" customWidth="true"/>
+    <col min="21" max="21" width="34.28515625" customWidth="true"/>
+    <col min="22" max="22" width="34.28515625" customWidth="true"/>
+    <col min="23" max="23" width="34.28515625" customWidth="true"/>
+    <col min="24" max="24" width="34.28515625" customWidth="true"/>
+    <col min="25" max="25" width="34.28515625" customWidth="true"/>
+    <col min="26" max="26" width="34.28515625" customWidth="true"/>
+    <col min="27" max="27" width="34.28515625" customWidth="true"/>
+    <col min="28" max="28" width="34.28515625" customWidth="true"/>
+    <col min="29" max="29" width="34.28515625" customWidth="true"/>
+    <col min="30" max="30" width="34.85546875" customWidth="true"/>
+    <col min="31" max="31" width="41.140625" customWidth="true"/>
+    <col min="32" max="32" width="41.140625" customWidth="true"/>
+    <col min="33" max="33" width="41.140625" customWidth="true"/>
+    <col min="34" max="34" width="41.140625" customWidth="true"/>
+    <col min="35" max="35" width="41.140625" customWidth="true"/>
+    <col min="36" max="36" width="41.140625" customWidth="true"/>
+    <col min="37" max="37" width="41.140625" customWidth="true"/>
+    <col min="38" max="38" width="41.140625" customWidth="true"/>
+    <col min="39" max="39" width="41.140625" customWidth="true"/>
+    <col min="40" max="40" width="41.7109375" customWidth="true"/>
+    <col min="41" max="41" width="34.42578125" customWidth="true"/>
+    <col min="42" max="42" width="34.42578125" customWidth="true"/>
+    <col min="43" max="43" width="34.42578125" customWidth="true"/>
+    <col min="44" max="44" width="34.42578125" customWidth="true"/>
+    <col min="45" max="45" width="34.42578125" customWidth="true"/>
+    <col min="46" max="46" width="34.42578125" customWidth="true"/>
+    <col min="47" max="47" width="34.42578125" customWidth="true"/>
+    <col min="48" max="48" width="34.42578125" customWidth="true"/>
+    <col min="49" max="49" width="34.42578125" customWidth="true"/>
+    <col min="50" max="50" width="35" customWidth="true"/>
+    <col min="51" max="51" width="33" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="33" customWidth="true"/>
+    <col min="54" max="54" width="33" customWidth="true"/>
+    <col min="55" max="55" width="33" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="33" customWidth="true"/>
+    <col min="58" max="58" width="33" customWidth="true"/>
+    <col min="59" max="59" width="33" customWidth="true"/>
+    <col min="60" max="60" width="33.5703125" customWidth="true"/>
+    <col min="61" max="61" width="39.85546875" customWidth="true"/>
+    <col min="62" max="62" width="39.85546875" customWidth="true"/>
+    <col min="63" max="63" width="39.85546875" customWidth="true"/>
+    <col min="64" max="64" width="39.85546875" customWidth="true"/>
+    <col min="65" max="65" width="39.85546875" customWidth="true"/>
+    <col min="66" max="66" width="39.85546875" customWidth="true"/>
+    <col min="67" max="67" width="39.85546875" customWidth="true"/>
+    <col min="68" max="68" width="39.85546875" customWidth="true"/>
+    <col min="69" max="69" width="39.85546875" customWidth="true"/>
+    <col min="70" max="70" width="40.42578125" customWidth="true"/>
+    <col min="71" max="71" width="34.7109375" customWidth="true"/>
+    <col min="72" max="72" width="34.7109375" customWidth="true"/>
+    <col min="73" max="73" width="34.7109375" customWidth="true"/>
+    <col min="74" max="74" width="34.7109375" customWidth="true"/>
+    <col min="75" max="75" width="34.7109375" customWidth="true"/>
+    <col min="76" max="76" width="34.7109375" customWidth="true"/>
+    <col min="77" max="77" width="34.7109375" customWidth="true"/>
+    <col min="78" max="78" width="34.7109375" customWidth="true"/>
+    <col min="79" max="79" width="34.7109375" customWidth="true"/>
+    <col min="80" max="80" width="35.28515625" customWidth="true"/>
+    <col min="81" max="81" width="33.42578125" customWidth="true"/>
+    <col min="82" max="82" width="33.42578125" customWidth="true"/>
+    <col min="83" max="83" width="33.42578125" customWidth="true"/>
+    <col min="84" max="84" width="33.42578125" customWidth="true"/>
+    <col min="85" max="85" width="33.42578125" customWidth="true"/>
+    <col min="86" max="86" width="33.42578125" customWidth="true"/>
+    <col min="87" max="87" width="33.42578125" customWidth="true"/>
+    <col min="88" max="88" width="33.42578125" customWidth="true"/>
+    <col min="89" max="89" width="33.42578125" customWidth="true"/>
+    <col min="90" max="90" width="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BT1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BU1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BV1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BW1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="BX1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="BY1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="BZ1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="CA1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="CB1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>59</v>
+      <c r="CC1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -493,181 +853,271 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0373710768287934e-05</v>
+        <v>1.5703744254353434e-05</v>
       </c>
       <c r="C2" s="0">
-        <v>1.5065942514573024e-05</v>
+        <v>3.4525061704859374e-05</v>
       </c>
       <c r="D2" s="0">
-        <v>2.1880562213696639e-05</v>
+        <v>7.5904183513043625e-05</v>
       </c>
       <c r="E2" s="0">
-        <v>3.1777567339338653e-05</v>
+        <v>0.00016687718400140863</v>
       </c>
       <c r="F2" s="0">
-        <v>4.6151180949732919e-05</v>
+        <v>0.00036688352672227227</v>
       </c>
       <c r="G2" s="0">
-        <v>6.7026260390242888e-05</v>
+        <v>0.00080660231046945235</v>
       </c>
       <c r="H2" s="0">
-        <v>9.7343545483566716e-05</v>
+        <v>0.0017733346958016011</v>
       </c>
       <c r="I2" s="0">
-        <v>0.00014137393004086835</v>
+        <v>0.0038987192356335991</v>
       </c>
       <c r="J2" s="0">
-        <v>0.00020532011645881971</v>
+        <v>0.0085714285714285684</v>
       </c>
       <c r="K2" s="0">
-        <v>0.00029819041042769871</v>
+        <v>33.112855293953096</v>
       </c>
       <c r="L2" s="0">
-        <v>0.00043306775003156223</v>
+        <v>33.115665233172315</v>
       </c>
       <c r="M2" s="0">
-        <v>0.00062895274146609003</v>
+        <v>33.111467294396569</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0009134403357647391</v>
+        <v>33.110233855326683</v>
       </c>
       <c r="O2" s="0">
-        <v>0.0013266072186235711</v>
+        <v>33.107054179915011</v>
       </c>
       <c r="P2" s="0">
-        <v>0.0019266575424773387</v>
+        <v>33.099329825652383</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.0027981223333280476</v>
+        <v>33.08523539718076</v>
       </c>
       <c r="R2" s="0">
-        <v>0.0040637676492324987</v>
+        <v>33.05280257048009</v>
       </c>
       <c r="S2" s="0">
-        <v>0.0059018890311728599</v>
+        <v>33.237294438940467</v>
       </c>
       <c r="T2" s="0">
-        <v>0.0085714285714285684</v>
+        <v>33.312460642886016</v>
       </c>
       <c r="U2" s="0">
+        <v>16.477536686903456</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.485459357441894</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.468605511681957</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16.512279097439258</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>16.473084792885352</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>16.478742460347576</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.49413134224752</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>16.493550047465828</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>16.649381482913075</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>16.394763092104728</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.49761751261337167</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.497814531019242</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0.4973686416629724</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0.49870620574861352</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0.49757023694602964</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.4978572843362028</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.49853450169657881</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.49900609826642789</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0.50092469209548041</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0.49215106827018146</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>29.781359557209051</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>29.786072644022013</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>29.781161594693586</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>29.778592448089249</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>29.762119657212772</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>29.738937816373408</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>29.89853309090423</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>30.001801282348069</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>30.178606413178485</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>31.183773658018595</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>14.808362530511371</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>14.817389911801088</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>14.804861553534153</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>14.803771464498212</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>14.785457341088614</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>14.708452733508036</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>14.789346489344034</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>14.76990734241096</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>14.823182440216005</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>15.525855409672339</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>0.4972359472731584</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>0.49746034292221131</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.49712169575588638</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>0.49712797843969619</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>0.49678777961318349</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>0.49458567835633938</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.4946512407273676</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.4923006856625311</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>0.49118180731310951</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>0.49788250709932985</v>
+      </c>
+      <c r="BS2" s="0">
         <v>302.5</v>
       </c>
-      <c r="V2" s="0">
+      <c r="BT2" s="0">
         <v>302.5</v>
       </c>
-      <c r="W2" s="0">
+      <c r="BU2" s="0">
         <v>302.5</v>
       </c>
-      <c r="X2" s="0">
+      <c r="BV2" s="0">
         <v>302.5</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="BW2" s="0">
         <v>302.5</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="BX2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AA2" s="0">
+      <c r="BY2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AB2" s="0">
+      <c r="BZ2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AC2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AK2" s="0">
+      <c r="CA2" s="0">
         <v>303</v>
       </c>
-      <c r="AL2" s="0">
-        <v>303</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>303</v>
-      </c>
-      <c r="AN2" s="0">
+      <c r="CB2" s="0">
         <v>304</v>
       </c>
-      <c r="AO2" s="0">
-        <v>33.112855293953096</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>33.11229968535342</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>33.115761319593489</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>33.112212075989966</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>33.111815870199926</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>33.111120747163568</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>33.110570419542285</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>33.110044286618553</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>33.111184643883334</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>33.102916989573835</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>33.104590533745295</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.097648376895478</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.091604698398825</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>33.082113789895018</v>
-      </c>
-      <c r="BC2" s="0">
-        <v>33.067518138271303</v>
-      </c>
-      <c r="BD2" s="0">
-        <v>33.044927982848257</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>33.268441815245602</v>
-      </c>
-      <c r="BF2" s="0">
-        <v>33.228000421390696</v>
-      </c>
-      <c r="BG2" s="0">
-        <v>33.154244451663637</v>
-      </c>
-      <c r="BH2" s="0">
-        <v>33.312460642886016</v>
+      <c r="CC2" s="0">
+        <v>268</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>268</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>268</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>268</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>268</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>270</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>272</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Insulation equivalent conductivity (W/mK)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>33.112855293953096</v>
+        <v>32.77329241352902</v>
       </c>
       <c r="C2" s="0">
-        <v>16.477536686903456</v>
+        <v>16.274835892552474</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49761751261337167</v>
+        <v>0.49658837101865666</v>
       </c>
       <c r="E2" s="0">
-        <v>29.781359557209051</v>
+        <v>29.320677753896625</v>
       </c>
       <c r="F2" s="0">
-        <v>14.808362530511371</v>
+        <v>14.579297759489732</v>
       </c>
       <c r="G2" s="0">
-        <v>0.4972359472731584</v>
+        <v>0.49723604214954376</v>
       </c>
       <c r="H2" s="0">
-        <v>302.5</v>
+        <v>299.05770891393894</v>
       </c>
       <c r="I2" s="0">
-        <v>268</v>
+        <v>265.42554296131311</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>1.5703744254353434e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>33.115665233172315</v>
+        <v>32.774252026261962</v>
       </c>
       <c r="C3" s="0">
-        <v>16.485459357441894</v>
+        <v>16.275195457947795</v>
       </c>
       <c r="D3" s="0">
-        <v>0.497814531019242</v>
+        <v>0.49658480214610251</v>
       </c>
       <c r="E3" s="0">
-        <v>29.786072644022013</v>
+        <v>29.272639081544099</v>
       </c>
       <c r="F3" s="0">
-        <v>14.817389911801088</v>
+        <v>14.483270274595737</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49746034292221131</v>
+        <v>0.49477159316760039</v>
       </c>
       <c r="H3" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I3" s="0">
-        <v>268</v>
+        <v>265.50939299472316</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>3.4525061704859374e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>33.111467294396569</v>
+        <v>32.772793603631591</v>
       </c>
       <c r="C4" s="0">
-        <v>16.468605511681957</v>
+        <v>16.275607717764231</v>
       </c>
       <c r="D4" s="0">
-        <v>0.4973686416629724</v>
+        <v>0.49661948000553457</v>
       </c>
       <c r="E4" s="0">
-        <v>29.781161594693586</v>
+        <v>29.316903451891847</v>
       </c>
       <c r="F4" s="0">
-        <v>14.804861553534153</v>
+        <v>14.524171121694941</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49712169575588638</v>
+        <v>0.49541968665035402</v>
       </c>
       <c r="H4" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I4" s="0">
-        <v>268</v>
+        <v>265.68202053819147</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>7.5904183513043625e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>33.110233855326683</v>
+        <v>32.772481962142614</v>
       </c>
       <c r="C5" s="0">
-        <v>16.512279097439258</v>
+        <v>16.276321602329066</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49870620574861352</v>
+        <v>0.49664598552928596</v>
       </c>
       <c r="E5" s="0">
-        <v>29.778592448089249</v>
+        <v>29.30691429262793</v>
       </c>
       <c r="F5" s="0">
-        <v>14.803771464498212</v>
+        <v>14.603291602409788</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49712797843969619</v>
+        <v>0.49828826933455783</v>
       </c>
       <c r="H5" s="0">
-        <v>302.5</v>
+        <v>298.9497081585269</v>
       </c>
       <c r="I5" s="0">
-        <v>268</v>
+        <v>265.39255207683027</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.00016687718400140863</v>
       </c>
       <c r="B6" s="0">
-        <v>33.107054179915011</v>
+        <v>32.769371324296081</v>
       </c>
       <c r="C6" s="0">
-        <v>16.473084792885352</v>
+        <v>16.280739717284661</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49757023694602964</v>
+        <v>0.49682795425537163</v>
       </c>
       <c r="E6" s="0">
-        <v>29.762119657212772</v>
+        <v>29.297991960860699</v>
       </c>
       <c r="F6" s="0">
-        <v>14.785457341088614</v>
+        <v>14.547901135108079</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49678777961318349</v>
+        <v>0.49654942750147096</v>
       </c>
       <c r="H6" s="0">
-        <v>302.5</v>
+        <v>299.07415270253398</v>
       </c>
       <c r="I6" s="0">
-        <v>268</v>
+        <v>265.36600548902254</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.00036688352672227227</v>
       </c>
       <c r="B7" s="0">
-        <v>33.099329825652383</v>
+        <v>32.76122057453825</v>
       </c>
       <c r="C7" s="0">
-        <v>16.478742460347576</v>
+        <v>16.285613400966337</v>
       </c>
       <c r="D7" s="0">
-        <v>0.4978572843362028</v>
+        <v>0.49710032518212649</v>
       </c>
       <c r="E7" s="0">
-        <v>29.738937816373408</v>
+        <v>29.319446752684335</v>
       </c>
       <c r="F7" s="0">
-        <v>14.708452733508036</v>
+        <v>14.528667127739583</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49458567835633938</v>
+        <v>0.49553005724466526</v>
       </c>
       <c r="H7" s="0">
-        <v>302.5</v>
+        <v>298.94012124375212</v>
       </c>
       <c r="I7" s="0">
-        <v>268.5</v>
+        <v>265.59005044578947</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.00080660231046945235</v>
       </c>
       <c r="B8" s="0">
-        <v>33.08523539718076</v>
+        <v>32.794728442994554</v>
       </c>
       <c r="C8" s="0">
-        <v>16.49413134224752</v>
+        <v>16.298977203582815</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49853450169657881</v>
+        <v>0.4969999136268049</v>
       </c>
       <c r="E8" s="0">
-        <v>29.89853309090423</v>
+        <v>29.400424879797164</v>
       </c>
       <c r="F8" s="0">
-        <v>14.789346489344034</v>
+        <v>14.528099914219124</v>
       </c>
       <c r="G8" s="0">
-        <v>0.4946512407273676</v>
+        <v>0.4941459170612964</v>
       </c>
       <c r="H8" s="0">
-        <v>302.5</v>
+        <v>299.04531566934696</v>
       </c>
       <c r="I8" s="0">
-        <v>269</v>
+        <v>266.0247110216535</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0017733346958016011</v>
       </c>
       <c r="B9" s="0">
-        <v>33.05280257048009</v>
+        <v>32.811284433865559</v>
       </c>
       <c r="C9" s="0">
-        <v>16.493550047465828</v>
+        <v>16.342171135941747</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49900609826642789</v>
+        <v>0.49806557158349091</v>
       </c>
       <c r="E9" s="0">
-        <v>30.001801282348069</v>
+        <v>29.509394935202451</v>
       </c>
       <c r="F9" s="0">
-        <v>14.76990734241096</v>
+        <v>14.554407235259344</v>
       </c>
       <c r="G9" s="0">
-        <v>0.4923006856625311</v>
+        <v>0.49321266217820853</v>
       </c>
       <c r="H9" s="0">
-        <v>302.5</v>
+        <v>299.5</v>
       </c>
       <c r="I9" s="0">
-        <v>270</v>
+        <v>266.9838460207726</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0038987192356335991</v>
       </c>
       <c r="B10" s="0">
-        <v>33.237294438940467</v>
+        <v>32.883544459803936</v>
       </c>
       <c r="C10" s="0">
-        <v>16.649381482913075</v>
+        <v>16.376378724027308</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50092469209548041</v>
+        <v>0.49801136079005731</v>
       </c>
       <c r="E10" s="0">
-        <v>30.178606413178485</v>
+        <v>29.773284346783221</v>
       </c>
       <c r="F10" s="0">
-        <v>14.823182440216005</v>
+        <v>14.574585052800272</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49118180731310951</v>
+        <v>0.48951888824367962</v>
       </c>
       <c r="H10" s="0">
-        <v>303</v>
+        <v>299.52225066632963</v>
       </c>
       <c r="I10" s="0">
-        <v>272</v>
+        <v>268.96354852795059</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.0085714285714285684</v>
       </c>
       <c r="B11" s="0">
-        <v>33.312460642886016</v>
+        <v>33.010550936512153</v>
       </c>
       <c r="C11" s="0">
-        <v>16.394763092104728</v>
+        <v>16.238632654447056</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49215106827018146</v>
+        <v>0.49192249731542365</v>
       </c>
       <c r="E11" s="0">
-        <v>31.183773658018595</v>
+        <v>30.095801120460571</v>
       </c>
       <c r="F11" s="0">
-        <v>15.525855409672339</v>
+        <v>14.949946014553548</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49788250709932985</v>
+        <v>0.49674524212581461</v>
       </c>
       <c r="H11" s="0">
-        <v>304</v>
+        <v>300.92703705314574</v>
       </c>
       <c r="I11" s="0">
-        <v>296</v>
+        <v>271.99088509064114</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
   <si>
     <t>Insulation equivalent conductivity (W/mK)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="34.53125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>32.77329241352902</v>
+        <v>32.782646768347803</v>
       </c>
       <c r="C2" s="0">
-        <v>16.274835892552474</v>
+        <v>16.294844081480207</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49658837101865666</v>
+        <v>0.49705700081584486</v>
       </c>
       <c r="E2" s="0">
-        <v>29.320677753896625</v>
+        <v>29.250222668733471</v>
       </c>
       <c r="F2" s="0">
-        <v>14.579297759489732</v>
+        <v>14.541744697262931</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49723604214954376</v>
+        <v>0.49714988025739315</v>
       </c>
       <c r="H2" s="0">
-        <v>299.05770891393894</v>
+        <v>299.02819594206602</v>
       </c>
       <c r="I2" s="0">
-        <v>265.42554296131311</v>
+        <v>264.52403413073449</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>1.5703744254353434e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>32.774252026261962</v>
+        <v>32.780813602046699</v>
       </c>
       <c r="C3" s="0">
-        <v>16.275195457947795</v>
+        <v>16.292918750256373</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49658480214610251</v>
+        <v>0.49702606372280855</v>
       </c>
       <c r="E3" s="0">
-        <v>29.272639081544099</v>
+        <v>29.251161454045594</v>
       </c>
       <c r="F3" s="0">
-        <v>14.483270274595737</v>
+        <v>14.551819524207435</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49477159316760039</v>
+        <v>0.49747834960566462</v>
       </c>
       <c r="H3" s="0">
-        <v>299</v>
+        <v>299.02066448667512</v>
       </c>
       <c r="I3" s="0">
-        <v>265.50939299472316</v>
+        <v>264.01897952103803</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>3.4525061704859374e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>32.772793603631591</v>
+        <v>32.780551308447777</v>
       </c>
       <c r="C4" s="0">
-        <v>16.275607717764231</v>
+        <v>16.292830921025889</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49661948000553457</v>
+        <v>0.49702736136799242</v>
       </c>
       <c r="E4" s="0">
-        <v>29.316903451891847</v>
+        <v>29.242215634571892</v>
       </c>
       <c r="F4" s="0">
-        <v>14.524171121694941</v>
+        <v>14.485551006468901</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49541968665035402</v>
+        <v>0.49536434542063967</v>
       </c>
       <c r="H4" s="0">
-        <v>299</v>
+        <v>299.03540417747342</v>
       </c>
       <c r="I4" s="0">
-        <v>265.68202053819147</v>
+        <v>264.59902510762271</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>7.5904183513043625e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>32.772481962142614</v>
+        <v>32.777845596878031</v>
       </c>
       <c r="C5" s="0">
-        <v>16.276321602329066</v>
+        <v>16.292724243555821</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49664598552928596</v>
+        <v>0.49706513490647608</v>
       </c>
       <c r="E5" s="0">
-        <v>29.30691429262793</v>
+        <v>29.276816890716013</v>
       </c>
       <c r="F5" s="0">
-        <v>14.603291602409788</v>
+        <v>14.550627059300432</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49828826933455783</v>
+        <v>0.49700167588623984</v>
       </c>
       <c r="H5" s="0">
-        <v>298.9497081585269</v>
+        <v>298.95368114503754</v>
       </c>
       <c r="I5" s="0">
-        <v>265.39255207683027</v>
+        <v>264.42345368839341</v>
       </c>
     </row>
     <row r="6">
@@ -252,144 +252,144 @@
         <v>0.00016687718400140863</v>
       </c>
       <c r="B6" s="0">
-        <v>32.769371324296081</v>
+        <v>32.775126368720251</v>
       </c>
       <c r="C6" s="0">
-        <v>16.280739717284661</v>
+        <v>16.293861077188492</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49682795425537163</v>
+        <v>0.49714106038471112</v>
       </c>
       <c r="E6" s="0">
-        <v>29.297991960860699</v>
+        <v>29.293461073766878</v>
       </c>
       <c r="F6" s="0">
-        <v>14.547901135108079</v>
+        <v>14.530862579764076</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49654942750147096</v>
+        <v>0.49604457947705177</v>
       </c>
       <c r="H6" s="0">
-        <v>299.07415270253398</v>
+        <v>298.93012220359748</v>
       </c>
       <c r="I6" s="0">
-        <v>265.36600548902254</v>
+        <v>264.4334308459388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00036688352672227227</v>
+        <v>0.00080660231046945235</v>
       </c>
       <c r="B7" s="0">
-        <v>32.76122057453825</v>
+        <v>32.802811234363588</v>
       </c>
       <c r="C7" s="0">
-        <v>16.285613400966337</v>
+        <v>16.316667708197333</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49710032518212649</v>
+        <v>0.49741674857136353</v>
       </c>
       <c r="E7" s="0">
-        <v>29.319446752684335</v>
+        <v>29.350588197157244</v>
       </c>
       <c r="F7" s="0">
-        <v>14.528667127739583</v>
+        <v>14.519005886391298</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49553005724466526</v>
+        <v>0.49467512503880717</v>
       </c>
       <c r="H7" s="0">
-        <v>298.94012124375212</v>
+        <v>298.93844052649496</v>
       </c>
       <c r="I7" s="0">
-        <v>265.59005044578947</v>
+        <v>265.42434558639229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.00080660231046945235</v>
+        <v>0.0017733346958016011</v>
       </c>
       <c r="B8" s="0">
-        <v>32.794728442994554</v>
+        <v>32.820288056347231</v>
       </c>
       <c r="C8" s="0">
-        <v>16.298977203582815</v>
+        <v>16.346649040951291</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4969999136268049</v>
+        <v>0.49806537385920219</v>
       </c>
       <c r="E8" s="0">
-        <v>29.400424879797164</v>
+        <v>29.475228161282175</v>
       </c>
       <c r="F8" s="0">
-        <v>14.528099914219124</v>
+        <v>14.555077203384913</v>
       </c>
       <c r="G8" s="0">
-        <v>0.4941459170612964</v>
+        <v>0.49380710893034074</v>
       </c>
       <c r="H8" s="0">
-        <v>299.04531566934696</v>
+        <v>299.40000000000003</v>
       </c>
       <c r="I8" s="0">
-        <v>266.0247110216535</v>
+        <v>266.49300300758841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0017733346958016011</v>
+        <v>0.0038987192356335991</v>
       </c>
       <c r="B9" s="0">
-        <v>32.811284433865559</v>
+        <v>32.838385845384508</v>
       </c>
       <c r="C9" s="0">
-        <v>16.342171135941747</v>
+        <v>16.342409961881785</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49806557158349091</v>
+        <v>0.49766179247749898</v>
       </c>
       <c r="E9" s="0">
-        <v>29.509394935202451</v>
+        <v>29.660230984203778</v>
       </c>
       <c r="F9" s="0">
-        <v>14.554407235259344</v>
+        <v>14.495762350419639</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49321266217820853</v>
+        <v>0.48872722394305301</v>
       </c>
       <c r="H9" s="0">
         <v>299.5</v>
       </c>
       <c r="I9" s="0">
-        <v>266.9838460207726</v>
+        <v>268.53961125034454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0038987192356335991</v>
+        <v>0.0085714285714285684</v>
       </c>
       <c r="B10" s="0">
-        <v>32.883544459803936</v>
+        <v>32.965214752787951</v>
       </c>
       <c r="C10" s="0">
-        <v>16.376378724027308</v>
+        <v>16.197533879810258</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49801136079005731</v>
+        <v>0.49135229366101407</v>
       </c>
       <c r="E10" s="0">
-        <v>29.773284346783221</v>
+        <v>29.915499949916303</v>
       </c>
       <c r="F10" s="0">
-        <v>14.574585052800272</v>
+        <v>14.913081169624501</v>
       </c>
       <c r="G10" s="0">
-        <v>0.48951888824367962</v>
+        <v>0.49850683406901325</v>
       </c>
       <c r="H10" s="0">
-        <v>299.52225066632963</v>
+        <v>300.4258742257627</v>
       </c>
       <c r="I10" s="0">
-        <v>268.96354852795059</v>
+        <v>270.38827826884722</v>
       </c>
     </row>
     <row r="11">

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Insulation equivalent conductivity (W/mK)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>32.782646768347803</v>
+        <v>34.988949577304084</v>
       </c>
       <c r="C2" s="0">
-        <v>16.294844081480207</v>
+        <v>17.856004523332114</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49705700081584486</v>
+        <v>0.51033268329137216</v>
       </c>
       <c r="E2" s="0">
-        <v>29.250222668733471</v>
+        <v>31.246316170460439</v>
       </c>
       <c r="F2" s="0">
-        <v>14.541744697262931</v>
+        <v>15.491341858194986</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49714988025739315</v>
+        <v>0.49578138343361416</v>
       </c>
       <c r="H2" s="0">
-        <v>299.02819594206602</v>
+        <v>329</v>
       </c>
       <c r="I2" s="0">
-        <v>264.52403413073449</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>1.5703744254353434e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>32.780813602046699</v>
+        <v>35.00115014608722</v>
       </c>
       <c r="C3" s="0">
-        <v>16.292918750256373</v>
+        <v>17.813683658203843</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49702606372280855</v>
+        <v>0.50894566560965526</v>
       </c>
       <c r="E3" s="0">
-        <v>29.251161454045594</v>
+        <v>31.26699230314231</v>
       </c>
       <c r="F3" s="0">
-        <v>14.551819524207435</v>
+        <v>15.508784075076013</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49747834960566462</v>
+        <v>0.49601138237774767</v>
       </c>
       <c r="H3" s="0">
-        <v>299.02066448667512</v>
+        <v>329</v>
       </c>
       <c r="I3" s="0">
-        <v>264.01897952103803</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>3.4525061704859374e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>32.780551308447777</v>
+        <v>34.97401099412528</v>
       </c>
       <c r="C4" s="0">
-        <v>16.292830921025889</v>
+        <v>17.840200087432933</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49702736136799242</v>
+        <v>0.5100987727838715</v>
       </c>
       <c r="E4" s="0">
-        <v>29.242215634571892</v>
+        <v>31.239117956781932</v>
       </c>
       <c r="F4" s="0">
-        <v>14.485551006468901</v>
+        <v>15.491780214759956</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49536434542063967</v>
+        <v>0.49590965520192387</v>
       </c>
       <c r="H4" s="0">
-        <v>299.03540417747342</v>
+        <v>329</v>
       </c>
       <c r="I4" s="0">
-        <v>264.59902510762271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>7.5904183513043625e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>32.777845596878031</v>
+        <v>34.998955165654969</v>
       </c>
       <c r="C5" s="0">
-        <v>16.292724243555821</v>
+        <v>17.81910465664971</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49706513490647608</v>
+        <v>0.50913247473558532</v>
       </c>
       <c r="E5" s="0">
-        <v>29.276816890716013</v>
+        <v>31.277388641370884</v>
       </c>
       <c r="F5" s="0">
-        <v>14.550627059300432</v>
+        <v>15.532217654842968</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49700167588623984</v>
+        <v>0.49659573031932608</v>
       </c>
       <c r="H5" s="0">
-        <v>298.95368114503754</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0">
-        <v>264.42345368839341</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -252,144 +252,144 @@
         <v>0.00016687718400140863</v>
       </c>
       <c r="B6" s="0">
-        <v>32.775126368720251</v>
+        <v>34.974807443003286</v>
       </c>
       <c r="C6" s="0">
-        <v>16.293861077188492</v>
+        <v>17.802497516244781</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49714106038471112</v>
+        <v>0.50900916453240319</v>
       </c>
       <c r="E6" s="0">
-        <v>29.293461073766878</v>
+        <v>31.234555628178178</v>
       </c>
       <c r="F6" s="0">
-        <v>14.530862579764076</v>
+        <v>15.493205081226979</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49604457947705177</v>
+        <v>0.49602770936333801</v>
       </c>
       <c r="H6" s="0">
-        <v>298.93012220359748</v>
+        <v>329</v>
       </c>
       <c r="I6" s="0">
-        <v>264.4334308459388</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00080660231046945235</v>
+        <v>0.00036688352672227227</v>
       </c>
       <c r="B7" s="0">
-        <v>32.802811234363588</v>
+        <v>34.979855434960754</v>
       </c>
       <c r="C7" s="0">
-        <v>16.316667708197333</v>
+        <v>17.780588788830105</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49741674857136353</v>
+        <v>0.50830938457965225</v>
       </c>
       <c r="E7" s="0">
-        <v>29.350588197157244</v>
+        <v>31.217414912278393</v>
       </c>
       <c r="F7" s="0">
-        <v>14.519005886391298</v>
+        <v>15.47369814692432</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49467512503880717</v>
+        <v>0.49567519252973846</v>
       </c>
       <c r="H7" s="0">
-        <v>298.93844052649496</v>
+        <v>329</v>
       </c>
       <c r="I7" s="0">
-        <v>265.42434558639229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0017733346958016011</v>
+        <v>0.00080660231046945235</v>
       </c>
       <c r="B8" s="0">
-        <v>32.820288056347231</v>
+        <v>34.936832399688306</v>
       </c>
       <c r="C8" s="0">
-        <v>16.346649040951291</v>
+        <v>17.710416884521276</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49806537385920219</v>
+        <v>0.50692680669811618</v>
       </c>
       <c r="E8" s="0">
-        <v>29.475228161282175</v>
+        <v>31.166949057456016</v>
       </c>
       <c r="F8" s="0">
-        <v>14.555077203384913</v>
+        <v>15.457345884579231</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49380710893034074</v>
+        <v>0.49595312829894711</v>
       </c>
       <c r="H8" s="0">
-        <v>299.40000000000003</v>
+        <v>329</v>
       </c>
       <c r="I8" s="0">
-        <v>266.49300300758841</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0038987192356335991</v>
+        <v>0.0017733346958016011</v>
       </c>
       <c r="B9" s="0">
-        <v>32.838385845384508</v>
+        <v>34.869611819251347</v>
       </c>
       <c r="C9" s="0">
-        <v>16.342409961881785</v>
+        <v>17.555737078289653</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49766179247749898</v>
+        <v>0.50346809621199207</v>
       </c>
       <c r="E9" s="0">
-        <v>29.660230984203778</v>
+        <v>31.045808804183494</v>
       </c>
       <c r="F9" s="0">
-        <v>14.495762350419639</v>
+        <v>15.365550345431465</v>
       </c>
       <c r="G9" s="0">
-        <v>0.48872722394305301</v>
+        <v>0.49493155235050351</v>
       </c>
       <c r="H9" s="0">
-        <v>299.5</v>
+        <v>329</v>
       </c>
       <c r="I9" s="0">
-        <v>268.53961125034454</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0085714285714285684</v>
+        <v>0.0038987192356335991</v>
       </c>
       <c r="B10" s="0">
-        <v>32.965214752787951</v>
+        <v>34.707138475247675</v>
       </c>
       <c r="C10" s="0">
-        <v>16.197533879810258</v>
+        <v>17.175361327757447</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49135229366101407</v>
+        <v>0.49486538165647148</v>
       </c>
       <c r="E10" s="0">
-        <v>29.915499949916303</v>
+        <v>32.061893206456823</v>
       </c>
       <c r="F10" s="0">
-        <v>14.913081169624501</v>
+        <v>16.769636624416197</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49850683406901325</v>
+        <v>0.52303950101858065</v>
       </c>
       <c r="H10" s="0">
-        <v>300.4258742257627</v>
+        <v>330</v>
       </c>
       <c r="I10" s="0">
-        <v>270.38827826884722</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11">

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Insulation equivalent conductivity (W/mK)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.53125" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="38.7109375" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>34.988949577304084</v>
+        <v>33.39826164720219</v>
       </c>
       <c r="C2" s="0">
-        <v>17.856004523332114</v>
+        <v>16.38729150882072</v>
       </c>
       <c r="D2" s="0">
-        <v>0.51033268329137216</v>
+        <v>0.49066300761176002</v>
       </c>
       <c r="E2" s="0">
-        <v>31.246316170460439</v>
+        <v>30.215296610272709</v>
       </c>
       <c r="F2" s="0">
-        <v>15.491341858194986</v>
+        <v>15.079108844444091</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49578138343361416</v>
+        <v>0.49905546316290139</v>
       </c>
       <c r="H2" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I2" s="0">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>1.5703744254353434e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>35.00115014608722</v>
+        <v>33.393007005583534</v>
       </c>
       <c r="C3" s="0">
-        <v>17.813683658203843</v>
+        <v>16.376170279596163</v>
       </c>
       <c r="D3" s="0">
-        <v>0.50894566560965526</v>
+        <v>0.49040717647434262</v>
       </c>
       <c r="E3" s="0">
-        <v>31.26699230314231</v>
+        <v>30.227659038314179</v>
       </c>
       <c r="F3" s="0">
-        <v>15.508784075076013</v>
+        <v>15.093070195559724</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49601138237774767</v>
+        <v>0.49931323416176382</v>
       </c>
       <c r="H3" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I3" s="0">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>3.4525061704859374e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>34.97401099412528</v>
+        <v>33.394175241246103</v>
       </c>
       <c r="C4" s="0">
-        <v>17.840200087432933</v>
+        <v>16.381286253180967</v>
       </c>
       <c r="D4" s="0">
-        <v>0.5100987727838715</v>
+        <v>0.49054322003281492</v>
       </c>
       <c r="E4" s="0">
-        <v>31.239117956781932</v>
+        <v>30.598308210939202</v>
       </c>
       <c r="F4" s="0">
-        <v>15.491780214759956</v>
+        <v>15.423707379763925</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49590965520192387</v>
+        <v>0.50407059349280614</v>
       </c>
       <c r="H4" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I4" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>7.5904183513043625e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>34.998955165654969</v>
+        <v>33.398601568318696</v>
       </c>
       <c r="C5" s="0">
-        <v>17.81910465664971</v>
+        <v>16.390294869607398</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50913247473558532</v>
+        <v>0.49074793853509524</v>
       </c>
       <c r="E5" s="0">
-        <v>31.277388641370884</v>
+        <v>30.611375710962818</v>
       </c>
       <c r="F5" s="0">
-        <v>15.532217654842968</v>
+        <v>15.442872311903681</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49659573031932608</v>
+        <v>0.50448148615461086</v>
       </c>
       <c r="H5" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.00016687718400140863</v>
       </c>
       <c r="B6" s="0">
-        <v>34.974807443003286</v>
+        <v>33.395289403448629</v>
       </c>
       <c r="C6" s="0">
-        <v>17.802497516244781</v>
+        <v>16.398530720110681</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50900916453240319</v>
+        <v>0.49104322834277503</v>
       </c>
       <c r="E6" s="0">
-        <v>31.234555628178178</v>
+        <v>30.577859917344405</v>
       </c>
       <c r="F6" s="0">
-        <v>15.493205081226979</v>
+        <v>15.411304350065533</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49602770936333801</v>
+        <v>0.50400205873544202</v>
       </c>
       <c r="H6" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I6" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.00036688352672227227</v>
       </c>
       <c r="B7" s="0">
-        <v>34.979855434960754</v>
+        <v>33.396246319244682</v>
       </c>
       <c r="C7" s="0">
-        <v>17.780588788830105</v>
+        <v>16.362092454254388</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50830938457965225</v>
+        <v>0.48993806962148573</v>
       </c>
       <c r="E7" s="0">
-        <v>31.217414912278393</v>
+        <v>30.585039333651231</v>
       </c>
       <c r="F7" s="0">
-        <v>15.47369814692432</v>
+        <v>15.436554357075178</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49567519252973846</v>
+        <v>0.50470931845724609</v>
       </c>
       <c r="H7" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I7" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.00080660231046945235</v>
       </c>
       <c r="B8" s="0">
-        <v>34.936832399688306</v>
+        <v>33.393850875056195</v>
       </c>
       <c r="C8" s="0">
-        <v>17.710416884521276</v>
+        <v>16.292657773193024</v>
       </c>
       <c r="D8" s="0">
-        <v>0.50692680669811618</v>
+        <v>0.48789394892348148</v>
       </c>
       <c r="E8" s="0">
-        <v>31.166949057456016</v>
+        <v>30.560629894508651</v>
       </c>
       <c r="F8" s="0">
-        <v>15.457345884579231</v>
+        <v>15.460669159829573</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49595312829894711</v>
+        <v>0.50590152144107658</v>
       </c>
       <c r="H8" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I8" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0017733346958016011</v>
       </c>
       <c r="B9" s="0">
-        <v>34.869611819251347</v>
+        <v>33.392833487079926</v>
       </c>
       <c r="C9" s="0">
-        <v>17.555737078289653</v>
+        <v>16.391326996350344</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50346809621199207</v>
+        <v>0.49086361607176399</v>
       </c>
       <c r="E9" s="0">
-        <v>31.045808804183494</v>
+        <v>30.495955758681198</v>
       </c>
       <c r="F9" s="0">
-        <v>15.365550345431465</v>
+        <v>15.513662856708413</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49493155235050351</v>
+        <v>0.50871213807726556</v>
       </c>
       <c r="H9" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I9" s="0">
-        <v>238</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0038987192356335991</v>
       </c>
       <c r="B10" s="0">
-        <v>34.707138475247675</v>
+        <v>33.379616736788194</v>
       </c>
       <c r="C10" s="0">
-        <v>17.175361327757447</v>
+        <v>16.586822353690732</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49486538165647148</v>
+        <v>0.49691470349958022</v>
       </c>
       <c r="E10" s="0">
-        <v>32.061893206456823</v>
+        <v>30.65954788278497</v>
       </c>
       <c r="F10" s="0">
-        <v>16.769636624416197</v>
+        <v>15.848681860213294</v>
       </c>
       <c r="G10" s="0">
-        <v>0.52303950101858065</v>
+        <v>0.51692483923131072</v>
       </c>
       <c r="H10" s="0">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="I10" s="0">
-        <v>262</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.0085714285714285684</v>
       </c>
       <c r="B11" s="0">
-        <v>33.010550936512153</v>
+        <v>33.366263791917689</v>
       </c>
       <c r="C11" s="0">
-        <v>16.238632654447056</v>
+        <v>17.04658192622751</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49192249731542365</v>
+        <v>0.51089273982053407</v>
       </c>
       <c r="E11" s="0">
-        <v>30.095801120460571</v>
+        <v>30.804118776779305</v>
       </c>
       <c r="F11" s="0">
-        <v>14.949946014553548</v>
+        <v>16.34586317294519</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49674524212581461</v>
+        <v>0.53063888278690163</v>
       </c>
       <c r="H11" s="0">
-        <v>300.92703705314574</v>
+        <v>282</v>
       </c>
       <c r="I11" s="0">
-        <v>271.99088509064114</v>
+        <v>271.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>7.1428571428571427e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>33.39826164720219</v>
+        <v>34.913776369470838</v>
       </c>
       <c r="C2" s="0">
-        <v>16.38729150882072</v>
+        <v>16.046616270646645</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49066300761176002</v>
+        <v>0.45960700729807219</v>
       </c>
       <c r="E2" s="0">
-        <v>30.215296610272709</v>
+        <v>30.658450542146987</v>
       </c>
       <c r="F2" s="0">
-        <v>15.079108844444091</v>
+        <v>15.259614157230043</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49905546316290139</v>
+        <v>0.49772946405925655</v>
       </c>
       <c r="H2" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I2" s="0">
-        <v>246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>1.5703744254353434e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>33.393007005583534</v>
+        <v>34.922945321561237</v>
       </c>
       <c r="C3" s="0">
-        <v>16.376170279596163</v>
+        <v>16.057267664509535</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49040717647434262</v>
+        <v>0.45979133537158634</v>
       </c>
       <c r="E3" s="0">
-        <v>30.227659038314179</v>
+        <v>30.660296317883805</v>
       </c>
       <c r="F3" s="0">
-        <v>15.093070195559724</v>
+        <v>15.260272694877289</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49931323416176382</v>
+        <v>0.49772097884051247</v>
       </c>
       <c r="H3" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I3" s="0">
-        <v>246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>3.4525061704859374e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>33.394175241246103</v>
+        <v>34.907910898952814</v>
       </c>
       <c r="C4" s="0">
-        <v>16.381286253180967</v>
+        <v>16.043983620324116</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49054322003281492</v>
+        <v>0.45960881665953296</v>
       </c>
       <c r="E4" s="0">
-        <v>30.598308210939202</v>
+        <v>30.655801210163922</v>
       </c>
       <c r="F4" s="0">
-        <v>15.423707379763925</v>
+        <v>15.266772246831055</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50407059349280614</v>
+        <v>0.49800597747121877</v>
       </c>
       <c r="H4" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>246.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>7.5904183513043625e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>33.398601568318696</v>
+        <v>34.905703523018794</v>
       </c>
       <c r="C5" s="0">
-        <v>16.390294869607398</v>
+        <v>16.045393555512156</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49074793853509524</v>
+        <v>0.45967827420899615</v>
       </c>
       <c r="E5" s="0">
-        <v>30.611375710962818</v>
+        <v>30.647876950116746</v>
       </c>
       <c r="F5" s="0">
-        <v>15.442872311903681</v>
+        <v>15.241345824614058</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50448148615461086</v>
+        <v>0.4973051102176263</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>246.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.00016687718400140863</v>
       </c>
       <c r="B6" s="0">
-        <v>33.395289403448629</v>
+        <v>34.917519062778261</v>
       </c>
       <c r="C6" s="0">
-        <v>16.398530720110681</v>
+        <v>16.066660234786756</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49104322834277503</v>
+        <v>0.46013178100942631</v>
       </c>
       <c r="E6" s="0">
-        <v>30.577859917344405</v>
+        <v>30.636079126776572</v>
       </c>
       <c r="F6" s="0">
-        <v>15.411304350065533</v>
+        <v>15.252227690426082</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50400205873544202</v>
+        <v>0.49785181802508521</v>
       </c>
       <c r="H6" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>247</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.00036688352672227227</v>
       </c>
       <c r="B7" s="0">
-        <v>33.396246319244682</v>
+        <v>34.901535472372629</v>
       </c>
       <c r="C7" s="0">
-        <v>16.362092454254388</v>
+        <v>16.0713571228364</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48993806962148573</v>
+        <v>0.4604770794556638</v>
       </c>
       <c r="E7" s="0">
-        <v>30.585039333651231</v>
+        <v>30.965267588605251</v>
       </c>
       <c r="F7" s="0">
-        <v>15.436554357075178</v>
+        <v>15.541494007393675</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50470931845724609</v>
+        <v>0.50190084626017284</v>
       </c>
       <c r="H7" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.00080660231046945235</v>
       </c>
       <c r="B8" s="0">
-        <v>33.393850875056195</v>
+        <v>34.887273081492978</v>
       </c>
       <c r="C8" s="0">
-        <v>16.292657773193024</v>
+        <v>16.104782033631658</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48789394892348148</v>
+        <v>0.46162341195348205</v>
       </c>
       <c r="E8" s="0">
-        <v>30.560629894508651</v>
+        <v>30.912421485517669</v>
       </c>
       <c r="F8" s="0">
-        <v>15.460669159829573</v>
+        <v>15.537837079453327</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50590152144107658</v>
+        <v>0.50264056753796316</v>
       </c>
       <c r="H8" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I8" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.0017733346958016011</v>
       </c>
       <c r="B9" s="0">
-        <v>33.392833487079926</v>
+        <v>34.851684462076136</v>
       </c>
       <c r="C9" s="0">
-        <v>16.391326996350344</v>
+        <v>16.170131056300125</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49086361607176399</v>
+        <v>0.46396985700635662</v>
       </c>
       <c r="E9" s="0">
-        <v>30.495955758681198</v>
+        <v>30.763331295120999</v>
       </c>
       <c r="F9" s="0">
-        <v>15.513662856708413</v>
+        <v>15.463066326108835</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50871213807726556</v>
+        <v>0.50264602938373082</v>
       </c>
       <c r="H9" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I9" s="0">
-        <v>247.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.0038987192356335991</v>
       </c>
       <c r="B10" s="0">
-        <v>33.379616736788194</v>
+        <v>35.267866443531076</v>
       </c>
       <c r="C10" s="0">
-        <v>16.586822353690732</v>
+        <v>16.763699684893659</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49691470349958022</v>
+        <v>0.47532503027181278</v>
       </c>
       <c r="E10" s="0">
-        <v>30.65954788278497</v>
+        <v>31.193345126036419</v>
       </c>
       <c r="F10" s="0">
-        <v>15.848681860213294</v>
+        <v>16.069243005674345</v>
       </c>
       <c r="G10" s="0">
-        <v>0.51692483923131072</v>
+        <v>0.51514971994015768</v>
       </c>
       <c r="H10" s="0">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="I10" s="0">
-        <v>248.5</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.0085714285714285684</v>
       </c>
       <c r="B11" s="0">
-        <v>33.366263791917689</v>
+        <v>35.115137281107216</v>
       </c>
       <c r="C11" s="0">
-        <v>17.04658192622751</v>
+        <v>17.18384179534123</v>
       </c>
       <c r="D11" s="0">
-        <v>0.51089273982053407</v>
+        <v>0.48935710140556815</v>
       </c>
       <c r="E11" s="0">
-        <v>30.804118776779305</v>
+        <v>31.782345969065368</v>
       </c>
       <c r="F11" s="0">
-        <v>16.34586317294519</v>
+        <v>16.801429943956588</v>
       </c>
       <c r="G11" s="0">
-        <v>0.53063888278690163</v>
+        <v>0.52864033260193832</v>
       </c>
       <c r="H11" s="0">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="I11" s="0">
-        <v>271.5</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="34.53125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Graphs/AC_tank_conductivity_sweep_results.xlsx
+++ b/Graphs/AC_tank_conductivity_sweep_results.xlsx
@@ -133,7 +133,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>7.1428571428571427e-06</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>34.913776369470838</v>
@@ -162,7 +162,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.5703744254353434e-05</v>
+        <v>2.1985241956094805</v>
       </c>
       <c r="B3" s="0">
         <v>34.922945321561237</v>
@@ -191,7 +191,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3.4525061704859374e-05</v>
+        <v>4.8335086386803123</v>
       </c>
       <c r="B4" s="0">
         <v>34.907910898952814</v>
@@ -220,7 +220,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>7.5904183513043625e-05</v>
+        <v>10.626585691826106</v>
       </c>
       <c r="B5" s="0">
         <v>34.905703523018794</v>
@@ -249,7 +249,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.00016687718400140863</v>
+        <v>23.362805760197208</v>
       </c>
       <c r="B6" s="0">
         <v>34.917519062778261</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00036688352672227227</v>
+        <v>51.363693741118112</v>
       </c>
       <c r="B7" s="0">
         <v>34.901535472372629</v>
@@ -307,7 +307,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.00080660231046945235</v>
+        <v>112.92432346572332</v>
       </c>
       <c r="B8" s="0">
         <v>34.887273081492978</v>
@@ -336,7 +336,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0017733346958016011</v>
+        <v>248.26685741222417</v>
       </c>
       <c r="B9" s="0">
         <v>34.851684462076136</v>
@@ -365,7 +365,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0038987192356335991</v>
+        <v>545.82069298870385</v>
       </c>
       <c r="B10" s="0">
         <v>35.267866443531076</v>
@@ -394,7 +394,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0085714285714285684</v>
+        <v>1199.9999999999995</v>
       </c>
       <c r="B11" s="0">
         <v>35.115137281107216</v>
